--- a/app/content/project1/session5/graphing/GPA-Distribution.xlsx
+++ b/app/content/project1/session5/graphing/GPA-Distribution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Source\Repos\G3DA\G3DA\app\content\project1\session5\graphing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,11 +23,67 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Student A</t>
+  </si>
+  <si>
+    <t>Student B</t>
+  </si>
+  <si>
+    <t>Student C</t>
+  </si>
+  <si>
+    <t>Student D</t>
+  </si>
+  <si>
+    <t>Student E</t>
+  </si>
+  <si>
+    <t>Student F</t>
+  </si>
+  <si>
+    <t>Student G</t>
+  </si>
+  <si>
+    <t>Student H</t>
+  </si>
+  <si>
+    <t>Student I</t>
+  </si>
+  <si>
+    <t>Student J</t>
+  </si>
+  <si>
+    <t>Student K</t>
+  </si>
+  <si>
+    <t>Section 12 - 1 GPA frequency distribution</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,8 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,14 +430,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>